--- a/biology/Botanique/Bignonia/Bignonia.xlsx
+++ b/biology/Botanique/Bignonia/Bignonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bignonia est un genre de plantes à fleurs de la famille des Bignoniaceae.
 Autrefois genre riche en espèces, celui-ci a vu leur nombre s'amenuiser, beaucoup d'espèces ayant été transférées dans d'autres genres.
 Ainsi la bignone, ou trompette de Virginie, est parfois encore appelée bignonia alors que son nom scientifique est Campsis radicans depuis la seconde moitié du XIXe siècle.
-Le botaniste Joseph Pitton de Tournefort a dédié en 1694 le genre à son protecteur Jean-Paul Bignon[1].
+Le botaniste Joseph Pitton de Tournefort a dédié en 1694 le genre à son protecteur Jean-Paul Bignon.
 Le Bignonia tomentosa, L., appelé Tong  en  Chine, donne dans ses semences une huile dont on prépare du noir de fumée qui entre dans la composition de  l'encre de  Chine.
 Le Bignonia chica donne une teinture rouge orangée dont se servent les tribus indiennes d'Amérique du Sud.
 </t>
@@ -516,9 +528,11 @@
           <t>Usages traditionnels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dictionnaire universel de matière médicale et de thérapeutique générale de Mérat de Vaumartoise et Jacques de Lens (1829-1846) mentionne que plusieurs espèces du genre étaient jadis utilisées en médecine traditionnelle, notamment aux Antilles. Écorce, feuilles, racines, fleurs était utilisées en décoction, en cataplasme, en infusion, contre une multitude d'affections[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dictionnaire universel de matière médicale et de thérapeutique générale de Mérat de Vaumartoise et Jacques de Lens (1829-1846) mentionne que plusieurs espèces du genre étaient jadis utilisées en médecine traditionnelle, notamment aux Antilles. Écorce, feuilles, racines, fleurs était utilisées en décoction, en cataplasme, en infusion, contre une multitude d'affections.
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bignonia capreolata L.
 Bignonia rodigasiana L.Linden
@@ -580,7 +596,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pour Bignonia grandifolia, voir Campsis grandiflora.</t>
         </is>
